--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D97FA-9408-4F6A-8AE9-D7A6A1651A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F436F5B-62B8-4D50-8B48-804653C1F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -818,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>22</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>23</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F436F5B-62B8-4D50-8B48-804653C1F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F07D11-EE62-4359-8EAC-E1A5B9A29C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,6 +1214,91 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1270</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1264</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1263</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1256</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1255</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F07D11-EE62-4359-8EAC-E1A5B9A29C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDC0426-F77E-4085-BB7C-1D97EE615F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,51 +87,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>exchangeKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastexchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowMan</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>요괴불꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exchangeKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchangeMaxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불멸석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천계꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비불</t>
+    <t>SnowMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonTableEventType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,9 +535,12 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,13 +560,22 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -555,8 +594,17 @@
       <c r="F2">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -575,8 +623,17 @@
       <c r="F3">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -595,8 +652,17 @@
       <c r="F4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -615,8 +681,17 @@
       <c r="F5">
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -635,8 +710,17 @@
       <c r="F6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -655,8 +739,17 @@
       <c r="F7">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -672,8 +765,17 @@
       <c r="F8">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -689,8 +791,17 @@
       <c r="F9">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -706,8 +817,17 @@
       <c r="F10">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -723,8 +843,17 @@
       <c r="F11">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -740,8 +869,17 @@
       <c r="F12">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -760,8 +898,17 @@
       <c r="F13">
         <v>500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -777,8 +924,17 @@
       <c r="F14">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -794,8 +950,17 @@
       <c r="F15">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -803,25 +968,31 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -837,8 +1008,17 @@
       <c r="F17">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -854,8 +1034,17 @@
       <c r="F18">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -871,8 +1060,17 @@
       <c r="F19">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -888,8 +1086,17 @@
       <c r="F20">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -905,8 +1112,17 @@
       <c r="F21">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -922,8 +1138,17 @@
       <c r="F22">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -937,19 +1162,28 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23">
         <v>500000</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -965,8 +1199,17 @@
       <c r="F24">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -982,8 +1225,17 @@
       <c r="F25">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -999,8 +1251,17 @@
       <c r="F26">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1016,8 +1277,17 @@
       <c r="F27">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1033,8 +1303,17 @@
       <c r="F28">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1050,8 +1329,17 @@
       <c r="F29">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1067,8 +1355,17 @@
       <c r="F30">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1082,19 +1379,28 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>500000</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1110,8 +1416,17 @@
       <c r="F32">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1127,8 +1442,17 @@
       <c r="F33">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1144,8 +1468,17 @@
       <c r="F34">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1159,19 +1492,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>500000</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1185,19 +1527,28 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>500000</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1213,8 +1564,17 @@
       <c r="F37">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1230,8 +1590,17 @@
       <c r="F38">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1247,8 +1616,17 @@
       <c r="F39">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1264,8 +1642,17 @@
       <c r="F40">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1281,8 +1668,17 @@
       <c r="F41">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1297,6 +1693,50 @@
       </c>
       <c r="F42">
         <v>7000000</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>9008</v>
+      </c>
+      <c r="C43">
+        <v>400</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>500000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
